--- a/SuperCom.Test/测试用例/SuperCom-3.6.xlsx
+++ b/SuperCom.Test/测试用例/SuperCom-3.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>用例编号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>自动化</t>
   </si>
   <si>
     <t>应用更新</t>
@@ -136,6 +139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.打开 2 个配对串口
 2.编辑命令新增  5 个，命令分别是：
 </t>
@@ -245,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1.点击编辑命令，新增【HEX】
 2.添加命令 
 </t>
@@ -1394,13 +1409,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.1574074074074" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1203703703704" style="1" customWidth="1"/>
@@ -1410,10 +1425,11 @@
     <col min="6" max="6" width="37.5555555555556" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.1574074074074" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.8888888888889" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="16.5555555555556" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1437,6 +1453,9 @@
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="70" customHeight="1" spans="1:7">
@@ -1447,19 +1466,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="155" customHeight="1" spans="1:7">
@@ -1470,19 +1489,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="73" customHeight="1" spans="1:7">
@@ -1493,19 +1512,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="111" customHeight="1" spans="1:7">
@@ -1516,19 +1535,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="217" customHeight="1" spans="1:7">
@@ -1539,19 +1558,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="156" customHeight="1" spans="1:7">
@@ -1562,19 +1581,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="94" customHeight="1" spans="1:7">
@@ -1585,19 +1604,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="99" customHeight="1" spans="1:6">
@@ -1608,16 +1627,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:7">
@@ -1628,19 +1647,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="82" customHeight="1" spans="1:6">
@@ -1651,16 +1670,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:6">
@@ -1671,16 +1690,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="70" customHeight="1" spans="1:7">
@@ -1691,19 +1710,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
